--- a/testGIT2.xlsx
+++ b/testGIT2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitMergeSimulation\excel_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7939FB4-DAD6-4182-8775-EC4927B46AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA6ED95-34DC-483F-B7CE-BD0EBFC2B4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VersionHistory" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>base column</t>
+  </si>
+  <si>
+    <t>merge 1</t>
   </si>
 </sst>
 </file>
@@ -463,14 +466,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="71.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="71.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -484,7 +487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -508,17 +511,17 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" customWidth="1"/>
+    <col min="3" max="3" width="40.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -529,7 +532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -537,10 +540,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -548,10 +551,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -562,7 +565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -573,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -584,7 +587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -595,7 +598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -606,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -617,7 +620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>

--- a/testGIT2.xlsx
+++ b/testGIT2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitMergeSimulation\excel_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7939FB4-DAD6-4182-8775-EC4927B46AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB817CD3-C29F-4C98-A83B-3BBC984E3C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20300" yWindow="1100" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VersionHistory" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>base column</t>
+  </si>
+  <si>
+    <t>merge 2</t>
   </si>
 </sst>
 </file>
@@ -463,14 +466,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="71.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="71.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -484,7 +487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -508,17 +511,17 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" customWidth="1"/>
+    <col min="3" max="3" width="40.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -529,7 +532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -540,7 +543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -551,7 +554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -562,7 +565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -573,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -584,7 +587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -595,7 +598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -606,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -614,10 +617,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -625,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
